--- a/sources/HD_projekt_kategorie-kanałow.xlsx
+++ b/sources/HD_projekt_kategorie-kanałow.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\source\repos\HD_projekt\sources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07ED4304-7398-4A82-84B9-C03C1C7A807E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="1428" yWindow="120" windowWidth="27792" windowHeight="12588" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="kategorie "/>
-    <sheet sheetId="2" r:id="rId2" name="grupy mediowe"/>
-    <sheet sheetId="3" r:id="rId3" name="Arkusz3"/>
-    <sheet r:id="rId8" name="Excel_Destination" sheetId="4"/>
+    <sheet name="kategorie " sheetId="1" r:id="rId1"/>
+    <sheet name="grupy mediowe" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Excel_Destination" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Excel_Destination">'Excel_Destination'!$A$1:$N$1</definedName>
+    <definedName name="Excel_Destination">Excel_Destination!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="171027" fullCalcOnLoad="true"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="239">
   <si>
     <t>Canal+</t>
   </si>
@@ -695,6 +701,48 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>"Date"</t>
+  </si>
+  <si>
+    <t>"Channel"</t>
+  </si>
+  <si>
+    <t>"Description"</t>
+  </si>
+  <si>
+    <t>"2nd Description"</t>
+  </si>
+  <si>
+    <t>"Start time"</t>
+  </si>
+  <si>
+    <t>"Duration"</t>
+  </si>
+  <si>
+    <t>"Variable Target"</t>
+  </si>
+  <si>
+    <t>"Total Individuals"</t>
+  </si>
+  <si>
+    <t>"Podgrupa"</t>
+  </si>
+  <si>
+    <t>"A16-49"</t>
+  </si>
+  <si>
+    <t>"M16-49"</t>
+  </si>
+  <si>
+    <t>"A4-15"</t>
+  </si>
+  <si>
+    <t>"A4-9"</t>
+  </si>
+  <si>
+    <t>Column 13</t>
   </si>
 </sst>
 </file>
@@ -1738,13 +1786,13 @@
       <selection activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.6640625" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1760,7 +1808,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1768,7 +1816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1776,7 +1824,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1792,7 +1840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1800,7 +1848,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1816,7 +1864,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1824,7 +1872,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1848,7 +1896,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1856,7 +1904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1864,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1880,7 +1928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1888,7 +1936,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1896,7 +1944,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1952,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1920,7 +1968,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1936,7 +1984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1992,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +2000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1960,7 +2008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1968,7 +2016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1976,7 +2024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1984,7 +2032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1992,7 +2040,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -2000,7 +2048,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -2008,7 +2056,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
@@ -2016,7 +2064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -2024,7 +2072,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -2032,7 +2080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -2040,7 +2088,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -2048,7 +2096,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
@@ -2056,7 +2104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -2064,7 +2112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2120,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
@@ -2080,7 +2128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
@@ -2088,7 +2136,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
@@ -2096,7 +2144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
@@ -2104,7 +2152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -2120,7 +2168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
@@ -2128,7 +2176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -2136,7 +2184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>51</v>
       </c>
@@ -2144,7 +2192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>52</v>
       </c>
@@ -2152,7 +2200,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>53</v>
       </c>
@@ -2160,7 +2208,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>54</v>
       </c>
@@ -2168,7 +2216,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>55</v>
       </c>
@@ -2176,7 +2224,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>56</v>
       </c>
@@ -2184,7 +2232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2192,7 +2240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>58</v>
       </c>
@@ -2200,7 +2248,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>59</v>
       </c>
@@ -2208,7 +2256,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>60</v>
       </c>
@@ -2216,7 +2264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>61</v>
       </c>
@@ -2224,7 +2272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>62</v>
       </c>
@@ -2232,7 +2280,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>63</v>
       </c>
@@ -2240,7 +2288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>64</v>
       </c>
@@ -2248,7 +2296,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>65</v>
       </c>
@@ -2256,7 +2304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>66</v>
       </c>
@@ -2264,7 +2312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2320,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>68</v>
       </c>
@@ -2280,7 +2328,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -2288,7 +2336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -2296,7 +2344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>71</v>
       </c>
@@ -2304,7 +2352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>73</v>
       </c>
@@ -2312,7 +2360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>74</v>
       </c>
@@ -2320,7 +2368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
         <v>75</v>
       </c>
@@ -2328,7 +2376,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
         <v>76</v>
       </c>
@@ -2336,7 +2384,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
         <v>77</v>
       </c>
@@ -2344,7 +2392,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
         <v>78</v>
       </c>
@@ -2352,7 +2400,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
         <v>79</v>
       </c>
@@ -2360,7 +2408,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>80</v>
       </c>
@@ -2368,7 +2416,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
         <v>81</v>
       </c>
@@ -2376,7 +2424,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
         <v>82</v>
       </c>
@@ -2384,7 +2432,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>83</v>
       </c>
@@ -2392,7 +2440,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2448,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
         <v>85</v>
       </c>
@@ -2408,7 +2456,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
         <v>86</v>
       </c>
@@ -2416,7 +2464,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
         <v>87</v>
       </c>
@@ -2424,7 +2472,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>88</v>
       </c>
@@ -2432,7 +2480,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>89</v>
       </c>
@@ -2440,7 +2488,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>90</v>
       </c>
@@ -2448,7 +2496,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>91</v>
       </c>
@@ -2456,7 +2504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>92</v>
       </c>
@@ -2464,7 +2512,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
         <v>93</v>
       </c>
@@ -2472,7 +2520,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
         <v>94</v>
       </c>
@@ -2480,7 +2528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2536,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>96</v>
       </c>
@@ -2496,7 +2544,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>97</v>
       </c>
@@ -2504,7 +2552,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>98</v>
       </c>
@@ -2512,7 +2560,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>99</v>
       </c>
@@ -2520,7 +2568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>100</v>
       </c>
@@ -2528,7 +2576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>101</v>
       </c>
@@ -2536,7 +2584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +2592,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>103</v>
       </c>
@@ -2552,7 +2600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
         <v>104</v>
       </c>
@@ -2560,7 +2608,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
         <v>105</v>
       </c>
@@ -2568,7 +2616,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>106</v>
       </c>
@@ -2576,7 +2624,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
         <v>107</v>
       </c>
@@ -2584,7 +2632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
         <v>108</v>
       </c>
@@ -2592,7 +2640,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
         <v>109</v>
       </c>
@@ -2600,7 +2648,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
         <v>110</v>
       </c>
@@ -2608,7 +2656,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
         <v>111</v>
       </c>
@@ -2616,7 +2664,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>112</v>
       </c>
@@ -2624,7 +2672,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>114</v>
       </c>
@@ -2632,7 +2680,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>115</v>
       </c>
@@ -2640,7 +2688,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>116</v>
       </c>
@@ -2648,7 +2696,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>117</v>
       </c>
@@ -2656,7 +2704,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>118</v>
       </c>
@@ -2664,7 +2712,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>119</v>
       </c>
@@ -2672,7 +2720,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>120</v>
       </c>
@@ -2680,7 +2728,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>121</v>
       </c>
@@ -2688,7 +2736,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>122</v>
       </c>
@@ -2696,7 +2744,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>123</v>
       </c>
@@ -2704,7 +2752,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>124</v>
       </c>
@@ -2712,7 +2760,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>125</v>
       </c>
@@ -2720,7 +2768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>126</v>
       </c>
@@ -2728,7 +2776,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>128</v>
       </c>
@@ -2736,7 +2784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>129</v>
       </c>
@@ -2744,7 +2792,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>130</v>
       </c>
@@ -2752,7 +2800,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>131</v>
       </c>
@@ -2760,7 +2808,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>132</v>
       </c>
@@ -2768,7 +2816,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>133</v>
       </c>
@@ -2776,7 +2824,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>134</v>
       </c>
@@ -2784,7 +2832,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>135</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>138</v>
       </c>
@@ -2800,7 +2848,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>139</v>
       </c>
@@ -2808,7 +2856,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>140</v>
       </c>
@@ -2816,7 +2864,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="11" t="s">
         <v>141</v>
       </c>
@@ -2824,7 +2872,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>143</v>
       </c>
@@ -2832,7 +2880,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>144</v>
       </c>
@@ -2840,7 +2888,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>145</v>
       </c>
@@ -2848,7 +2896,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>146</v>
       </c>
@@ -2856,7 +2904,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>147</v>
       </c>
@@ -2864,7 +2912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>148</v>
       </c>
@@ -2872,7 +2920,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>224</v>
       </c>
@@ -2887,22 +2935,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="12"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2910,7 +2958,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <f>A2+1</f>
         <v>2</v>
@@ -2919,7 +2967,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <f t="shared" ref="A4:A13" si="0">A3+1</f>
         <v>3</v>
@@ -2928,7 +2976,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2937,7 +2985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2946,7 +2994,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2955,7 +3003,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2964,7 +3012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2973,7 +3021,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2982,7 +3030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2991,7 +3039,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3000,7 +3048,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3009,12 +3057,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1</v>
       </c>
@@ -3022,7 +3070,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <f>A15+1</f>
         <v>2</v>
@@ -3031,7 +3079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <f t="shared" ref="A17:A23" si="1">A16+1</f>
         <v>3</v>
@@ -3040,7 +3088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3049,7 +3097,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3058,7 +3106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3067,7 +3115,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3076,7 +3124,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3085,7 +3133,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3094,12 +3142,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>1</v>
       </c>
@@ -3107,7 +3155,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <f>A28+1</f>
         <v>2</v>
@@ -3116,7 +3164,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="12">
         <f t="shared" ref="A30:A47" si="2">A29+1</f>
         <v>3</v>
@@ -3125,7 +3173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -3134,7 +3182,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -3143,7 +3191,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -3152,7 +3200,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -3161,7 +3209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -3170,7 +3218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -3179,7 +3227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="12">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -3188,7 +3236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -3197,7 +3245,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -3206,7 +3254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -3215,7 +3263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -3224,7 +3272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -3233,7 +3281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="12">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -3242,7 +3290,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -3251,7 +3299,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -3260,7 +3308,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -3269,7 +3317,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -3278,12 +3326,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="12">
         <v>1</v>
       </c>
@@ -3291,7 +3339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="12">
         <f>A52+1</f>
         <v>2</v>
@@ -3300,7 +3348,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="12">
         <f t="shared" ref="A54:A55" si="3">A53+1</f>
         <v>3</v>
@@ -3309,7 +3357,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3318,12 +3366,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -3331,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <f>A60+1</f>
         <v>2</v>
@@ -3340,7 +3388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <f t="shared" ref="A62:A75" si="4">A61+1</f>
         <v>3</v>
@@ -3349,7 +3397,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -3358,7 +3406,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="12">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -3367,7 +3415,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="12">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -3376,7 +3424,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="12">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -3385,7 +3433,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="12">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -3394,7 +3442,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="12">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -3403,7 +3451,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="12">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -3412,7 +3460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -3421,7 +3469,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -3430,7 +3478,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -3439,7 +3487,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -3448,7 +3496,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -3457,7 +3505,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -3466,12 +3514,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="12">
         <v>1</v>
       </c>
@@ -3479,7 +3527,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="12">
         <f>A80+1</f>
         <v>2</v>
@@ -3488,7 +3536,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="12">
         <f t="shared" ref="A82:A87" si="5">A81+1</f>
         <v>3</v>
@@ -3497,7 +3545,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3506,7 +3554,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3515,7 +3563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3524,7 +3572,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3533,7 +3581,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -3542,12 +3590,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="12">
         <v>1</v>
       </c>
@@ -3555,7 +3603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="12">
         <f>A92+1</f>
         <v>2</v>
@@ -3564,7 +3612,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="12">
         <f t="shared" ref="A94:A95" si="6">A93+1</f>
         <v>3</v>
@@ -3573,7 +3621,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="12">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -3582,12 +3630,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <v>1</v>
       </c>
@@ -3595,7 +3643,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <f>A100+1</f>
         <v>2</v>
@@ -3604,7 +3652,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="12">
         <f>A101+1</f>
         <v>3</v>
@@ -3613,12 +3661,12 @@
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="12">
         <v>1</v>
       </c>
@@ -3626,7 +3674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="12">
         <f>A107+1</f>
         <v>2</v>
@@ -3635,7 +3683,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
         <f t="shared" ref="A109:A111" si="7">A108+1</f>
         <v>3</v>
@@ -3644,7 +3692,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -3653,7 +3701,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -3662,12 +3710,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B115" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="12">
         <v>1</v>
       </c>
@@ -3675,7 +3723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="12">
         <f>A116+1</f>
         <v>2</v>
@@ -3684,7 +3732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="12">
         <f>A117+1</f>
         <v>3</v>
@@ -3693,12 +3741,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="12">
         <v>1</v>
       </c>
@@ -3706,7 +3754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="12">
         <f>A123+1</f>
         <v>2</v>
@@ -3715,7 +3763,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="12">
         <f t="shared" ref="A125:A127" si="8">A124+1</f>
         <v>3</v>
@@ -3724,7 +3772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="12">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -3733,7 +3781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="12">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -3742,12 +3790,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="12">
         <v>1</v>
       </c>
@@ -3755,7 +3803,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="12">
         <f>A132+1</f>
         <v>2</v>
@@ -3764,7 +3812,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="12">
         <f t="shared" ref="A134:A135" si="9">A133+1</f>
         <v>3</v>
@@ -3773,7 +3821,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="12">
         <f t="shared" si="9"/>
         <v>4</v>
@@ -3782,12 +3830,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B139" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="12">
         <v>1</v>
       </c>
@@ -3795,7 +3843,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="12">
         <f>A140+1</f>
         <v>2</v>
@@ -3804,7 +3852,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="12">
         <f t="shared" ref="A142:A148" si="10">A141+1</f>
         <v>3</v>
@@ -3813,7 +3861,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="12">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -3822,7 +3870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="12">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -3831,7 +3879,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="12">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -3840,7 +3888,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="12">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -3849,7 +3897,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="12">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -3858,7 +3906,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="12">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -3867,12 +3915,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B152" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="12">
         <v>1</v>
       </c>
@@ -3880,7 +3928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="12">
         <f>A153+1</f>
         <v>2</v>
@@ -3889,7 +3937,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="12">
         <f t="shared" ref="A155:A157" si="11">A154+1</f>
         <v>3</v>
@@ -3898,7 +3946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="12">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -3907,7 +3955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="12">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -3916,12 +3964,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B161" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="12">
         <v>1</v>
       </c>
@@ -3929,7 +3977,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <f>A162+1</f>
         <v>2</v>
@@ -3938,7 +3986,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="12">
         <f t="shared" ref="A164:A166" si="12">A163+1</f>
         <v>3</v>
@@ -3947,7 +3995,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="12">
         <f t="shared" si="12"/>
         <v>4</v>
@@ -3956,7 +4004,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="12">
         <f t="shared" si="12"/>
         <v>5</v>
@@ -3965,12 +4013,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B170" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="12">
         <v>1</v>
       </c>
@@ -3978,7 +4026,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="12">
         <f>A171+1</f>
         <v>2</v>
@@ -3987,7 +4035,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="12">
         <f>A172+1</f>
         <v>3</v>
@@ -3996,12 +4044,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="12">
         <v>1</v>
       </c>
@@ -4009,7 +4057,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="12">
         <f>A178+1</f>
         <v>2</v>
@@ -4018,7 +4066,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="12">
         <f>A179+1</f>
         <v>3</v>
@@ -4027,12 +4075,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B184" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="12">
         <v>1</v>
       </c>
@@ -4040,7 +4088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="12">
         <f>A185+1</f>
         <v>2</v>
@@ -4049,7 +4097,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="12">
         <f t="shared" ref="A187:A188" si="13">A186+1</f>
         <v>3</v>
@@ -4058,7 +4106,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="12">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -4067,12 +4115,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B192" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="12">
         <v>1</v>
       </c>
@@ -4080,7 +4128,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="12">
         <f>A193+1</f>
         <v>2</v>
@@ -4100,92 +4148,64 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="12" t="inlineStr">
-        <is>
-          <t>"Date"</t>
-        </is>
-      </c>
-      <c r="B1" s="12" t="inlineStr">
-        <is>
-          <t>"Channel"</t>
-        </is>
-      </c>
-      <c r="C1" s="12" t="inlineStr">
-        <is>
-          <t>"Description"</t>
-        </is>
-      </c>
-      <c r="D1" s="12" t="inlineStr">
-        <is>
-          <t>"2nd Description"</t>
-        </is>
-      </c>
-      <c r="E1" s="12" t="inlineStr">
-        <is>
-          <t>"Start time"</t>
-        </is>
-      </c>
-      <c r="F1" s="12" t="inlineStr">
-        <is>
-          <t>"Duration"</t>
-        </is>
-      </c>
-      <c r="G1" s="12" t="inlineStr">
-        <is>
-          <t>"Variable Target"</t>
-        </is>
-      </c>
-      <c r="H1" s="12" t="inlineStr">
-        <is>
-          <t>"Total Individuals"</t>
-        </is>
-      </c>
-      <c r="I1" s="12" t="inlineStr">
-        <is>
-          <t>"Podgrupa"</t>
-        </is>
-      </c>
-      <c r="J1" s="12" t="inlineStr">
-        <is>
-          <t>"A16-49"</t>
-        </is>
-      </c>
-      <c r="K1" s="12" t="inlineStr">
-        <is>
-          <t>"M16-49"</t>
-        </is>
-      </c>
-      <c r="L1" s="12" t="inlineStr">
-        <is>
-          <t>"A4-15"</t>
-        </is>
-      </c>
-      <c r="M1" s="12" t="inlineStr">
-        <is>
-          <t>"A4-9"</t>
-        </is>
-      </c>
-      <c r="N1" s="12" t="inlineStr">
-        <is>
-          <t>Column 13</t>
-        </is>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
